--- a/积累库/工具.xlsx
+++ b/积累库/工具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28260" windowHeight="16170" activeTab="1"/>
+    <workbookView windowWidth="18330" windowHeight="11895" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>名称</t>
   </si>
@@ -127,6 +127,15 @@
   </si>
   <si>
     <t>https://www.bilibili.com/video/BV1dF411s7Ge?spm_id_from=333.999.0.0&amp;vd_source=42fd18cd452e0e4e27f559d8ed84f22e</t>
+  </si>
+  <si>
+    <t>82年牛顿</t>
+  </si>
+  <si>
+    <t>系列视频，高设计不是用的产品</t>
+  </si>
+  <si>
+    <t>https://space.bilibili.com/367455495?spm_id_from=333.337.0.0</t>
   </si>
 </sst>
 </file>
@@ -1208,10 +1217,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -1376,6 +1385,20 @@
         <v>36</v>
       </c>
     </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="https://github.com/Tencent/puerts"/>
@@ -1383,6 +1406,7 @@
     <hyperlink ref="D6" r:id="rId3" display="https://dungeonscrawl.com/"/>
     <hyperlink ref="D7" r:id="rId4" display="https://twitter.com/rilemtwit" tooltip="https://twitter.com/rilemtwit"/>
     <hyperlink ref="D12" r:id="rId5" display="https://www.bilibili.com/video/BV1dF411s7Ge?spm_id_from=333.999.0.0&amp;vd_source=42fd18cd452e0e4e27f559d8ed84f22e"/>
+    <hyperlink ref="D13" r:id="rId6" display="https://space.bilibili.com/367455495?spm_id_from=333.337.0.0"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/积累库/工具.xlsx
+++ b/积累库/工具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18330" windowHeight="11895" activeTab="1"/>
+    <workbookView windowHeight="14625" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>名称</t>
   </si>
@@ -136,6 +136,27 @@
   </si>
   <si>
     <t>https://space.bilibili.com/367455495?spm_id_from=333.337.0.0</t>
+  </si>
+  <si>
+    <t>LDtk</t>
+  </si>
+  <si>
+    <t>2D关卡编辑器</t>
+  </si>
+  <si>
+    <t>https://ldtk.io/</t>
+  </si>
+  <si>
+    <t>游戏地图</t>
+  </si>
+  <si>
+    <t>网站</t>
+  </si>
+  <si>
+    <t>各个游戏流程和地图</t>
+  </si>
+  <si>
+    <t>https://game-maps.com/</t>
   </si>
 </sst>
 </file>
@@ -183,6 +204,14 @@
       <charset val="0"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -214,14 +243,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -650,10 +671,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,31 +683,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -707,13 +728,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -725,10 +746,10 @@
     <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -743,56 +764,56 @@
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -802,10 +823,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1205,7 +1232,7 @@
       <c r="D5"/>
     </row>
     <row r="6" spans="5:5">
-      <c r="E6" s="5"/>
+      <c r="E6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1217,10 +1244,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -1246,157 +1273,190 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1407,6 +1467,8 @@
     <hyperlink ref="D7" r:id="rId4" display="https://twitter.com/rilemtwit" tooltip="https://twitter.com/rilemtwit"/>
     <hyperlink ref="D12" r:id="rId5" display="https://www.bilibili.com/video/BV1dF411s7Ge?spm_id_from=333.999.0.0&amp;vd_source=42fd18cd452e0e4e27f559d8ed84f22e"/>
     <hyperlink ref="D13" r:id="rId6" display="https://space.bilibili.com/367455495?spm_id_from=333.337.0.0"/>
+    <hyperlink ref="D14" r:id="rId7" display="https://ldtk.io/"/>
+    <hyperlink ref="D15" r:id="rId8" display="https://game-maps.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
